--- a/experiments/evaluation/llm-based/roberta-base_15/rem-100_remove/rem2/word_level_error_type_summary.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/rem-100_remove/rem2/word_level_error_type_summary.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -453,7 +453,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -463,7 +463,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -473,7 +473,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
       <c r="B5" t="n">
